--- a/Eide1941GrunnmaterialComplete.xlsx
+++ b/Eide1941GrunnmaterialComplete.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15390" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="DoubleBarkThickness" sheetId="2" r:id="rId2"/>
+    <sheet name="Distribution" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="62">
   <si>
     <t>Plot</t>
   </si>
@@ -175,6 +177,42 @@
   <si>
     <t>Number standing trees per ha</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Number Plots</t>
+  </si>
+  <si>
+    <t>QMD-class</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>PercentRemaining</t>
+  </si>
+  <si>
+    <t>PercentFelled</t>
+  </si>
+  <si>
+    <t>PercentHLRemaining</t>
+  </si>
+  <si>
+    <t>PercentHLFelled</t>
+  </si>
 </sst>
 </file>
 
@@ -209,10 +247,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
@@ -18258,7 +18299,7597 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>1.8</v>
+      </c>
+      <c r="F2">
+        <v>0.38</v>
+      </c>
+      <c r="G2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>1.6</v>
+      </c>
+      <c r="F3">
+        <v>0.4</v>
+      </c>
+      <c r="G3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>1.4</v>
+      </c>
+      <c r="F4">
+        <v>0.53</v>
+      </c>
+      <c r="G4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <v>1.3</v>
+      </c>
+      <c r="F5">
+        <v>0.53</v>
+      </c>
+      <c r="G5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>106</v>
+      </c>
+      <c r="E6">
+        <v>1.2</v>
+      </c>
+      <c r="F6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>101</v>
+      </c>
+      <c r="E7">
+        <v>2.5</v>
+      </c>
+      <c r="F7">
+        <v>0.59</v>
+      </c>
+      <c r="G7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>391</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>148</v>
+      </c>
+      <c r="E8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>392</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>148</v>
+      </c>
+      <c r="E9">
+        <v>2.7</v>
+      </c>
+      <c r="F9">
+        <v>0.54</v>
+      </c>
+      <c r="G9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="F10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1391</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>1.3</v>
+      </c>
+      <c r="F12">
+        <v>0.7</v>
+      </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>140</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>1.6</v>
+      </c>
+      <c r="F13">
+        <v>0.45</v>
+      </c>
+      <c r="G13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1421</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>94</v>
+      </c>
+      <c r="E14">
+        <v>1.5</v>
+      </c>
+      <c r="F14">
+        <v>0.51</v>
+      </c>
+      <c r="G14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>143</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>105</v>
+      </c>
+      <c r="E15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F15">
+        <v>0.59</v>
+      </c>
+      <c r="G15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1551</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>113</v>
+      </c>
+      <c r="E16">
+        <v>1.4</v>
+      </c>
+      <c r="F16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1572</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>0.9</v>
+      </c>
+      <c r="F17">
+        <v>0.54</v>
+      </c>
+      <c r="G17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1581</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1.5</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1591</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>92</v>
+      </c>
+      <c r="E19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>162</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>84</v>
+      </c>
+      <c r="E20">
+        <v>1.5</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1631</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>124</v>
+      </c>
+      <c r="E21">
+        <v>1.6</v>
+      </c>
+      <c r="F21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1641</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>115</v>
+      </c>
+      <c r="E22">
+        <v>2.9</v>
+      </c>
+      <c r="F22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>165</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>91</v>
+      </c>
+      <c r="E23">
+        <v>1.3</v>
+      </c>
+      <c r="F23">
+        <v>0.52</v>
+      </c>
+      <c r="G23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>166</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>87</v>
+      </c>
+      <c r="E24">
+        <v>1.4</v>
+      </c>
+      <c r="F24">
+        <v>0.6</v>
+      </c>
+      <c r="G24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>168</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1.6</v>
+      </c>
+      <c r="F25">
+        <v>0.42</v>
+      </c>
+      <c r="G25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>169</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>1.6</v>
+      </c>
+      <c r="F26">
+        <v>0.4</v>
+      </c>
+      <c r="G26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>174</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>1.6</v>
+      </c>
+      <c r="F27">
+        <v>0.38</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1761</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>59</v>
+      </c>
+      <c r="E28">
+        <v>1.5</v>
+      </c>
+      <c r="F28">
+        <v>0.42</v>
+      </c>
+      <c r="G28">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1762</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>59</v>
+      </c>
+      <c r="E29">
+        <v>1.5</v>
+      </c>
+      <c r="F29">
+        <v>0.42</v>
+      </c>
+      <c r="G29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1771</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>45</v>
+      </c>
+      <c r="E30">
+        <v>2.4</v>
+      </c>
+      <c r="F30">
+        <v>0.82</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>192</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>1.4</v>
+      </c>
+      <c r="F31">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2101</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>110</v>
+      </c>
+      <c r="E32">
+        <v>1.4</v>
+      </c>
+      <c r="F32">
+        <v>0.65</v>
+      </c>
+      <c r="G32">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2141</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>2.4</v>
+      </c>
+      <c r="F33">
+        <v>0.4</v>
+      </c>
+      <c r="G33">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2191</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>90</v>
+      </c>
+      <c r="E34">
+        <v>1.3</v>
+      </c>
+      <c r="F34">
+        <v>0.67</v>
+      </c>
+      <c r="G34">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2231</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>68</v>
+      </c>
+      <c r="E35">
+        <v>1.5</v>
+      </c>
+      <c r="F35">
+        <v>0.52</v>
+      </c>
+      <c r="G35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2232</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>68</v>
+      </c>
+      <c r="E36">
+        <v>1.4</v>
+      </c>
+      <c r="F36">
+        <v>0.59</v>
+      </c>
+      <c r="G36">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2235</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>68</v>
+      </c>
+      <c r="E37">
+        <v>1.5</v>
+      </c>
+      <c r="F37">
+        <v>0.52</v>
+      </c>
+      <c r="G37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>224</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>96</v>
+      </c>
+      <c r="E38">
+        <v>4.3</v>
+      </c>
+      <c r="F38">
+        <v>0.43</v>
+      </c>
+      <c r="G38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2281</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>1.6</v>
+      </c>
+      <c r="F39">
+        <v>0.4</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>237</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>92</v>
+      </c>
+      <c r="E40">
+        <v>1.6</v>
+      </c>
+      <c r="F40">
+        <v>0.53</v>
+      </c>
+      <c r="G40">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>238</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>92</v>
+      </c>
+      <c r="E41">
+        <v>1.5</v>
+      </c>
+      <c r="F41">
+        <v>0.47</v>
+      </c>
+      <c r="G41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>239</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>92</v>
+      </c>
+      <c r="E42">
+        <v>1.3</v>
+      </c>
+      <c r="F42">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>252</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>106</v>
+      </c>
+      <c r="E43">
+        <v>1.5</v>
+      </c>
+      <c r="F43">
+        <v>0.65</v>
+      </c>
+      <c r="G43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>262</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>51</v>
+      </c>
+      <c r="E44">
+        <v>1.6</v>
+      </c>
+      <c r="F44">
+        <v>0.42</v>
+      </c>
+      <c r="G44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>263</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F45">
+        <v>0.43</v>
+      </c>
+      <c r="G45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>278</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>56</v>
+      </c>
+      <c r="E46">
+        <v>1.5</v>
+      </c>
+      <c r="F46">
+        <v>0.45</v>
+      </c>
+      <c r="G46">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H281"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="G250" sqref="G250"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F2">
+        <v>54.8</v>
+      </c>
+      <c r="G2">
+        <v>54</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E3" s="3">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F3">
+        <v>83.6</v>
+      </c>
+      <c r="G3">
+        <v>84.7</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="F4">
+        <v>108.4</v>
+      </c>
+      <c r="G4">
+        <v>112.2</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="F5">
+        <v>128.9</v>
+      </c>
+      <c r="G5">
+        <v>127.6</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="G6">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>159.1</v>
+      </c>
+      <c r="G7">
+        <v>128</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <v>183.3</v>
+      </c>
+      <c r="G8">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>145.5</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>188.8</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F22">
+        <v>43.6</v>
+      </c>
+      <c r="G22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>29.6</v>
+      </c>
+      <c r="E23" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="F23">
+        <v>69.7</v>
+      </c>
+      <c r="G23">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>33.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="F24">
+        <v>91.3</v>
+      </c>
+      <c r="G24">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="F25">
+        <v>108.8</v>
+      </c>
+      <c r="G25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F26">
+        <v>121.8</v>
+      </c>
+      <c r="G26">
+        <v>126.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="F27">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="G27">
+        <v>128.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="G28">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="G29">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F30">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="G30">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="F42">
+        <v>30.4</v>
+      </c>
+      <c r="G42">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D43" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="E43" s="3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F43">
+        <v>54.3</v>
+      </c>
+      <c r="G43">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="F44">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G44">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D45" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23.9</v>
+      </c>
+      <c r="F45">
+        <v>91.8</v>
+      </c>
+      <c r="G45">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="E46" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="F46">
+        <v>105.2</v>
+      </c>
+      <c r="G46">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D47" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F47">
+        <v>115.9</v>
+      </c>
+      <c r="G47">
+        <v>116.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F48">
+        <v>124</v>
+      </c>
+      <c r="G48">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>17</v>
+      </c>
+      <c r="C49" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F49">
+        <v>130.1</v>
+      </c>
+      <c r="G49">
+        <v>137.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F50">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="G50">
+        <v>144.69999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>21</v>
+      </c>
+      <c r="C51" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F51" s="5">
+        <v>138.9</v>
+      </c>
+      <c r="G51">
+        <v>151.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
+        <v>165.2</v>
+      </c>
+      <c r="G52">
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>24</v>
+      </c>
+      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="C53" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>163.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>27</v>
+      </c>
+      <c r="C54" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>29</v>
+      </c>
+      <c r="C55" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>30</v>
+      </c>
+      <c r="B56">
+        <v>31</v>
+      </c>
+      <c r="C56" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>32</v>
+      </c>
+      <c r="B57">
+        <v>33</v>
+      </c>
+      <c r="C57" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>34</v>
+      </c>
+      <c r="B58">
+        <v>35</v>
+      </c>
+      <c r="C58" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>36</v>
+      </c>
+      <c r="B59">
+        <v>37</v>
+      </c>
+      <c r="C59" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>38</v>
+      </c>
+      <c r="B60">
+        <v>39</v>
+      </c>
+      <c r="C60" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="F62">
+        <v>23.9</v>
+      </c>
+      <c r="G62">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D63" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="E63" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="F63">
+        <v>48.2</v>
+      </c>
+      <c r="G63">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>13</v>
+      </c>
+      <c r="E64" s="3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F64">
+        <v>67.8</v>
+      </c>
+      <c r="G64">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D65" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="F65">
+        <v>83</v>
+      </c>
+      <c r="G65">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D66" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F66">
+        <v>95.4</v>
+      </c>
+      <c r="G66">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+      <c r="C67" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D67" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E67" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="F67">
+        <v>104.8</v>
+      </c>
+      <c r="G67">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+      <c r="C68" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E68" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="F68">
+        <v>111.3</v>
+      </c>
+      <c r="G68">
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>16</v>
+      </c>
+      <c r="B69">
+        <v>17</v>
+      </c>
+      <c r="C69" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D69" s="3">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>115.8</v>
+      </c>
+      <c r="G69">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="B70">
+        <v>19</v>
+      </c>
+      <c r="C70" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F70">
+        <v>120.2</v>
+      </c>
+      <c r="G70">
+        <v>128.30000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>20</v>
+      </c>
+      <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F71">
+        <v>126.2</v>
+      </c>
+      <c r="G71">
+        <v>133.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>23</v>
+      </c>
+      <c r="C72" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F72">
+        <v>131.6</v>
+      </c>
+      <c r="G72">
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>24</v>
+      </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
+      <c r="C73" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F73">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="G73">
+        <v>142.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>26</v>
+      </c>
+      <c r="B74">
+        <v>27</v>
+      </c>
+      <c r="C74" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74">
+        <v>129.30000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>29</v>
+      </c>
+      <c r="C75" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75">
+        <v>156.19999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>30</v>
+      </c>
+      <c r="B76">
+        <v>31</v>
+      </c>
+      <c r="C76" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>32</v>
+      </c>
+      <c r="B77">
+        <v>33</v>
+      </c>
+      <c r="C77" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77">
+        <v>143.30000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>34</v>
+      </c>
+      <c r="B78">
+        <v>35</v>
+      </c>
+      <c r="C78" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>36</v>
+      </c>
+      <c r="B79">
+        <v>37</v>
+      </c>
+      <c r="C79" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>38</v>
+      </c>
+      <c r="B80">
+        <v>39</v>
+      </c>
+      <c r="C80" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="F82">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G82">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D83" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="F83">
+        <v>39</v>
+      </c>
+      <c r="G83">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D84" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E84" s="3">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>57.2</v>
+      </c>
+      <c r="G84">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D85" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="E85" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="F85">
+        <v>73.5</v>
+      </c>
+      <c r="G85">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>11</v>
+      </c>
+      <c r="C86" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D86" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F86">
+        <v>86.9</v>
+      </c>
+      <c r="G86">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>12</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D87" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="E87" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="F87">
+        <v>96.9</v>
+      </c>
+      <c r="G87">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>14</v>
+      </c>
+      <c r="B88">
+        <v>15</v>
+      </c>
+      <c r="C88" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D88" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="E88" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="F88">
+        <v>104.2</v>
+      </c>
+      <c r="G88">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89">
+        <v>17</v>
+      </c>
+      <c r="C89" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D89" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F89">
+        <v>111.6</v>
+      </c>
+      <c r="G89">
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>18</v>
+      </c>
+      <c r="B90">
+        <v>19</v>
+      </c>
+      <c r="C90" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D90" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E90" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F90">
+        <v>117.3</v>
+      </c>
+      <c r="G90">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>20</v>
+      </c>
+      <c r="B91">
+        <v>21</v>
+      </c>
+      <c r="C91" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F91">
+        <v>121.4</v>
+      </c>
+      <c r="G91">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>22</v>
+      </c>
+      <c r="B92">
+        <v>23</v>
+      </c>
+      <c r="C92" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F92">
+        <v>126.1</v>
+      </c>
+      <c r="G92">
+        <v>128.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>24</v>
+      </c>
+      <c r="B93">
+        <v>25</v>
+      </c>
+      <c r="C93" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F93">
+        <v>129.4</v>
+      </c>
+      <c r="G93">
+        <v>130.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>26</v>
+      </c>
+      <c r="B94">
+        <v>27</v>
+      </c>
+      <c r="C94" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F94">
+        <v>137.9</v>
+      </c>
+      <c r="G94">
+        <v>132.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>28</v>
+      </c>
+      <c r="B95">
+        <v>29</v>
+      </c>
+      <c r="C95" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F95">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="G95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>31</v>
+      </c>
+      <c r="C96" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96">
+        <v>143.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>32</v>
+      </c>
+      <c r="B97">
+        <v>33</v>
+      </c>
+      <c r="C97" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>34</v>
+      </c>
+      <c r="B98">
+        <v>35</v>
+      </c>
+      <c r="C98" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>36</v>
+      </c>
+      <c r="B99">
+        <v>37</v>
+      </c>
+      <c r="C99" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>38</v>
+      </c>
+      <c r="B100">
+        <v>39</v>
+      </c>
+      <c r="C100" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100">
+        <v>140.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>40</v>
+      </c>
+      <c r="B101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F102">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G102">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E103" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="F103">
+        <v>31.7</v>
+      </c>
+      <c r="G103">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D104" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E104" s="3">
+        <v>7</v>
+      </c>
+      <c r="F104">
+        <v>48.7</v>
+      </c>
+      <c r="G104">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D105" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E105" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="F105">
+        <v>62.6</v>
+      </c>
+      <c r="G105">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D106" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="E106" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="F106">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="G106">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>12</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D107" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E107" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F107">
+        <v>87.9</v>
+      </c>
+      <c r="G107">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>14</v>
+      </c>
+      <c r="B108">
+        <v>15</v>
+      </c>
+      <c r="C108" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D108" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="E108" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F108">
+        <v>96.4</v>
+      </c>
+      <c r="G108">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D109" s="3">
+        <v>16</v>
+      </c>
+      <c r="E109" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="F109">
+        <v>103.1</v>
+      </c>
+      <c r="G109">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>18</v>
+      </c>
+      <c r="B110">
+        <v>19</v>
+      </c>
+      <c r="C110" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D110" s="3">
+        <v>9</v>
+      </c>
+      <c r="E110" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F110">
+        <v>108.8</v>
+      </c>
+      <c r="G110">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>20</v>
+      </c>
+      <c r="B111">
+        <v>21</v>
+      </c>
+      <c r="C111" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D111" s="3">
+        <v>5</v>
+      </c>
+      <c r="E111" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="F111">
+        <v>113.5</v>
+      </c>
+      <c r="G111">
+        <v>114.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>22</v>
+      </c>
+      <c r="B112">
+        <v>23</v>
+      </c>
+      <c r="C112" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E112" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="F112">
+        <v>117.2</v>
+      </c>
+      <c r="G112">
+        <v>116.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>24</v>
+      </c>
+      <c r="B113">
+        <v>25</v>
+      </c>
+      <c r="C113" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E113" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F113">
+        <v>121.2</v>
+      </c>
+      <c r="G113">
+        <v>121.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>26</v>
+      </c>
+      <c r="B114">
+        <v>27</v>
+      </c>
+      <c r="C114" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F114">
+        <v>124.1</v>
+      </c>
+      <c r="G114">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>28</v>
+      </c>
+      <c r="B115">
+        <v>29</v>
+      </c>
+      <c r="C115" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F115">
+        <v>128</v>
+      </c>
+      <c r="G115">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>30</v>
+      </c>
+      <c r="B116">
+        <v>31</v>
+      </c>
+      <c r="C116" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F116">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="G116">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>32</v>
+      </c>
+      <c r="B117">
+        <v>33</v>
+      </c>
+      <c r="C117" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117">
+        <v>131.19999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>34</v>
+      </c>
+      <c r="B118">
+        <v>35</v>
+      </c>
+      <c r="C118" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>36</v>
+      </c>
+      <c r="B119">
+        <v>37</v>
+      </c>
+      <c r="C119" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>38</v>
+      </c>
+      <c r="B120">
+        <v>39</v>
+      </c>
+      <c r="C120" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>40</v>
+      </c>
+      <c r="B121" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F122">
+        <v>13.9</v>
+      </c>
+      <c r="G122">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F123">
+        <v>26.8</v>
+      </c>
+      <c r="G123">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E124" s="3">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>41.6</v>
+      </c>
+      <c r="G124">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <v>9</v>
+      </c>
+      <c r="C125" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D125" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E125" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="F125">
+        <v>55.9</v>
+      </c>
+      <c r="G125">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>10</v>
+      </c>
+      <c r="B126">
+        <v>11</v>
+      </c>
+      <c r="C126" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D126" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="E126" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="F126">
+        <v>70.3</v>
+      </c>
+      <c r="G126">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>12</v>
+      </c>
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="C127" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D127" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="E127" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="F127">
+        <v>81.5</v>
+      </c>
+      <c r="G127">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>14</v>
+      </c>
+      <c r="B128">
+        <v>15</v>
+      </c>
+      <c r="C128" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D128" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="E128" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="F128">
+        <v>90.2</v>
+      </c>
+      <c r="G128">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>16</v>
+      </c>
+      <c r="B129">
+        <v>17</v>
+      </c>
+      <c r="C129" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D129" s="3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E129" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="F129">
+        <v>97.2</v>
+      </c>
+      <c r="G129">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>18</v>
+      </c>
+      <c r="B130">
+        <v>19</v>
+      </c>
+      <c r="C130" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D130" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E130" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="F130">
+        <v>102.7</v>
+      </c>
+      <c r="G130">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>20</v>
+      </c>
+      <c r="B131">
+        <v>21</v>
+      </c>
+      <c r="C131" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D131" s="3">
+        <v>9</v>
+      </c>
+      <c r="E131" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="F131">
+        <v>107.8</v>
+      </c>
+      <c r="G131">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>22</v>
+      </c>
+      <c r="B132">
+        <v>23</v>
+      </c>
+      <c r="C132" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D132" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="E132" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F132">
+        <v>112.2</v>
+      </c>
+      <c r="G132">
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>24</v>
+      </c>
+      <c r="B133">
+        <v>25</v>
+      </c>
+      <c r="C133" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D133" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="E133" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="F133">
+        <v>116.2</v>
+      </c>
+      <c r="G133">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>26</v>
+      </c>
+      <c r="B134">
+        <v>27</v>
+      </c>
+      <c r="C134" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="F134">
+        <v>120.1</v>
+      </c>
+      <c r="G134">
+        <v>121.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>28</v>
+      </c>
+      <c r="B135">
+        <v>29</v>
+      </c>
+      <c r="C135" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F135">
+        <v>123.3</v>
+      </c>
+      <c r="G135">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>30</v>
+      </c>
+      <c r="B136">
+        <v>31</v>
+      </c>
+      <c r="C136" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F136">
+        <v>126.4</v>
+      </c>
+      <c r="G136">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>32</v>
+      </c>
+      <c r="B137">
+        <v>33</v>
+      </c>
+      <c r="C137" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137">
+        <v>126.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>34</v>
+      </c>
+      <c r="B138">
+        <v>35</v>
+      </c>
+      <c r="C138" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138">
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>36</v>
+      </c>
+      <c r="B139">
+        <v>37</v>
+      </c>
+      <c r="C139" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>38</v>
+      </c>
+      <c r="B140">
+        <v>39</v>
+      </c>
+      <c r="C140" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>40</v>
+      </c>
+      <c r="B141" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F142">
+        <v>13.1</v>
+      </c>
+      <c r="G142">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>4</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F143">
+        <v>23.4</v>
+      </c>
+      <c r="G143">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D144" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="E144" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F144">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G144">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>8</v>
+      </c>
+      <c r="B145">
+        <v>9</v>
+      </c>
+      <c r="C145" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="E145" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="F145">
+        <v>50.4</v>
+      </c>
+      <c r="G145">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>10</v>
+      </c>
+      <c r="B146">
+        <v>11</v>
+      </c>
+      <c r="C146" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D146" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="E146" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="F146">
+        <v>63.7</v>
+      </c>
+      <c r="G146">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>12</v>
+      </c>
+      <c r="B147">
+        <v>13</v>
+      </c>
+      <c r="C147" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D147" s="3">
+        <v>8</v>
+      </c>
+      <c r="E147" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="F147">
+        <v>74.7</v>
+      </c>
+      <c r="G147">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>14</v>
+      </c>
+      <c r="B148">
+        <v>15</v>
+      </c>
+      <c r="C148" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D148" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="E148" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="F148">
+        <v>83.9</v>
+      </c>
+      <c r="G148">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>16</v>
+      </c>
+      <c r="B149">
+        <v>17</v>
+      </c>
+      <c r="C149" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D149" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E149" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F149">
+        <v>91.5</v>
+      </c>
+      <c r="G149">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>18</v>
+      </c>
+      <c r="B150">
+        <v>19</v>
+      </c>
+      <c r="C150" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D150" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E150" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F150">
+        <v>97.9</v>
+      </c>
+      <c r="G150">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>20</v>
+      </c>
+      <c r="B151">
+        <v>21</v>
+      </c>
+      <c r="C151" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D151" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="E151" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="F151">
+        <v>102.7</v>
+      </c>
+      <c r="G151">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>23</v>
+      </c>
+      <c r="C152" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D152" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E152" s="3">
+        <v>10</v>
+      </c>
+      <c r="F152">
+        <v>106.9</v>
+      </c>
+      <c r="G152">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>24</v>
+      </c>
+      <c r="B153">
+        <v>25</v>
+      </c>
+      <c r="C153" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D153" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="E153" s="3">
+        <v>4</v>
+      </c>
+      <c r="F153">
+        <v>110.5</v>
+      </c>
+      <c r="G153">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>26</v>
+      </c>
+      <c r="B154">
+        <v>27</v>
+      </c>
+      <c r="C154" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D154" s="3">
+        <v>4</v>
+      </c>
+      <c r="E154" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="F154">
+        <v>114</v>
+      </c>
+      <c r="G154">
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>28</v>
+      </c>
+      <c r="B155">
+        <v>29</v>
+      </c>
+      <c r="C155" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D155" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E155" s="3">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>115.7</v>
+      </c>
+      <c r="G155">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>30</v>
+      </c>
+      <c r="B156">
+        <v>31</v>
+      </c>
+      <c r="C156" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F156">
+        <v>119</v>
+      </c>
+      <c r="G156">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>32</v>
+      </c>
+      <c r="B157">
+        <v>33</v>
+      </c>
+      <c r="C157" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F157">
+        <v>115.6</v>
+      </c>
+      <c r="G157">
+        <v>117.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>34</v>
+      </c>
+      <c r="B158">
+        <v>35</v>
+      </c>
+      <c r="C158" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>36</v>
+      </c>
+      <c r="B159">
+        <v>37</v>
+      </c>
+      <c r="C159" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>38</v>
+      </c>
+      <c r="B160">
+        <v>39</v>
+      </c>
+      <c r="C160" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>40</v>
+      </c>
+      <c r="B161" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F162">
+        <v>11.5</v>
+      </c>
+      <c r="G162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>4</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+      <c r="C163" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D163" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E163" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="F163">
+        <v>22.8</v>
+      </c>
+      <c r="G163">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D164" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G164">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>8</v>
+      </c>
+      <c r="B165">
+        <v>9</v>
+      </c>
+      <c r="C165" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D165" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="E165" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="F165">
+        <v>44.2</v>
+      </c>
+      <c r="G165">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>10</v>
+      </c>
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E166" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="F166">
+        <v>58.7</v>
+      </c>
+      <c r="G166">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>12</v>
+      </c>
+      <c r="B167">
+        <v>13</v>
+      </c>
+      <c r="C167" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D167" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E167" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="F167">
+        <v>69.8</v>
+      </c>
+      <c r="G167">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>14</v>
+      </c>
+      <c r="B168">
+        <v>15</v>
+      </c>
+      <c r="C168" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D168" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="E168" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F168">
+        <v>79.2</v>
+      </c>
+      <c r="G168">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>16</v>
+      </c>
+      <c r="B169">
+        <v>17</v>
+      </c>
+      <c r="C169" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D169" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E169" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="F169">
+        <v>86.9</v>
+      </c>
+      <c r="G169">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>18</v>
+      </c>
+      <c r="B170">
+        <v>19</v>
+      </c>
+      <c r="C170" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D170" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="E170" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="F170">
+        <v>93.2</v>
+      </c>
+      <c r="G170">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>20</v>
+      </c>
+      <c r="B171">
+        <v>21</v>
+      </c>
+      <c r="C171" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D171" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="E171" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="F171">
+        <v>98.4</v>
+      </c>
+      <c r="G171">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>22</v>
+      </c>
+      <c r="B172">
+        <v>23</v>
+      </c>
+      <c r="C172" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D172" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="E172" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="F172">
+        <v>102.5</v>
+      </c>
+      <c r="G172">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>24</v>
+      </c>
+      <c r="B173">
+        <v>25</v>
+      </c>
+      <c r="C173" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D173" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="E173" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="F173">
+        <v>106</v>
+      </c>
+      <c r="G173">
+        <v>106.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>26</v>
+      </c>
+      <c r="B174">
+        <v>27</v>
+      </c>
+      <c r="C174" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D174" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="E174" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="F174">
+        <v>109.2</v>
+      </c>
+      <c r="G174">
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>28</v>
+      </c>
+      <c r="B175">
+        <v>29</v>
+      </c>
+      <c r="C175" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D175" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E175" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F175">
+        <v>112.7</v>
+      </c>
+      <c r="G175">
+        <v>109.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>30</v>
+      </c>
+      <c r="B176">
+        <v>31</v>
+      </c>
+      <c r="C176" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D176" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="E176" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="F176">
+        <v>113.3</v>
+      </c>
+      <c r="G176">
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>32</v>
+      </c>
+      <c r="B177">
+        <v>33</v>
+      </c>
+      <c r="C177" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="F177">
+        <v>114.5</v>
+      </c>
+      <c r="G177">
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>34</v>
+      </c>
+      <c r="B178">
+        <v>35</v>
+      </c>
+      <c r="C178" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F178">
+        <v>115.3</v>
+      </c>
+      <c r="G178">
+        <v>116.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>36</v>
+      </c>
+      <c r="B179">
+        <v>37</v>
+      </c>
+      <c r="C179" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F179">
+        <v>119.5</v>
+      </c>
+      <c r="G179">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>38</v>
+      </c>
+      <c r="B180">
+        <v>39</v>
+      </c>
+      <c r="C180" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" t="s">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>40</v>
+      </c>
+      <c r="B181" t="s">
+        <v>57</v>
+      </c>
+      <c r="C181" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F181" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D182" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F182">
+        <v>11.4</v>
+      </c>
+      <c r="G182">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F183">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G183">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>6</v>
+      </c>
+      <c r="B184">
+        <v>7</v>
+      </c>
+      <c r="C184" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F184">
+        <v>28.6</v>
+      </c>
+      <c r="G184">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185">
+        <v>9</v>
+      </c>
+      <c r="C185" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F185">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="G185">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>10</v>
+      </c>
+      <c r="B186">
+        <v>11</v>
+      </c>
+      <c r="C186" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F186">
+        <v>52.5</v>
+      </c>
+      <c r="G186">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>12</v>
+      </c>
+      <c r="B187">
+        <v>13</v>
+      </c>
+      <c r="C187" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E187" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="F187">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="G187">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>14</v>
+      </c>
+      <c r="B188">
+        <v>15</v>
+      </c>
+      <c r="C188" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D188" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="E188" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="F188">
+        <v>74.5</v>
+      </c>
+      <c r="G188">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>16</v>
+      </c>
+      <c r="B189">
+        <v>17</v>
+      </c>
+      <c r="C189" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D189" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="E189" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="F189">
+        <v>82.8</v>
+      </c>
+      <c r="G189">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>18</v>
+      </c>
+      <c r="B190">
+        <v>19</v>
+      </c>
+      <c r="C190" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D190" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="E190" s="3">
+        <v>10</v>
+      </c>
+      <c r="F190">
+        <v>89.3</v>
+      </c>
+      <c r="G190">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>20</v>
+      </c>
+      <c r="B191">
+        <v>21</v>
+      </c>
+      <c r="C191" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D191" s="3">
+        <v>16</v>
+      </c>
+      <c r="E191" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="F191">
+        <v>94.7</v>
+      </c>
+      <c r="G191">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>22</v>
+      </c>
+      <c r="B192">
+        <v>23</v>
+      </c>
+      <c r="C192" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D192" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="E192" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="F192">
+        <v>98.9</v>
+      </c>
+      <c r="G192">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>24</v>
+      </c>
+      <c r="B193">
+        <v>25</v>
+      </c>
+      <c r="C193" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D193" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="E193" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="F193">
+        <v>102.1</v>
+      </c>
+      <c r="G193">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>26</v>
+      </c>
+      <c r="B194">
+        <v>27</v>
+      </c>
+      <c r="C194" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D194" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="E194" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F194">
+        <v>105</v>
+      </c>
+      <c r="G194">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>28</v>
+      </c>
+      <c r="B195">
+        <v>29</v>
+      </c>
+      <c r="C195" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D195" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="E195" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F195">
+        <v>108</v>
+      </c>
+      <c r="G195">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>30</v>
+      </c>
+      <c r="B196">
+        <v>31</v>
+      </c>
+      <c r="C196" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D196" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E196" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="F196">
+        <v>111.4</v>
+      </c>
+      <c r="G196">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>32</v>
+      </c>
+      <c r="B197">
+        <v>33</v>
+      </c>
+      <c r="C197" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="E197" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="F197">
+        <v>112.6</v>
+      </c>
+      <c r="G197">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>34</v>
+      </c>
+      <c r="B198">
+        <v>35</v>
+      </c>
+      <c r="C198" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F198">
+        <v>112.5</v>
+      </c>
+      <c r="G198">
+        <v>116.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>36</v>
+      </c>
+      <c r="B199">
+        <v>37</v>
+      </c>
+      <c r="C199" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F199">
+        <v>115.4</v>
+      </c>
+      <c r="G199">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>38</v>
+      </c>
+      <c r="B200">
+        <v>39</v>
+      </c>
+      <c r="C200" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F200">
+        <v>117.6</v>
+      </c>
+      <c r="G200">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>40</v>
+      </c>
+      <c r="B201" t="s">
+        <v>57</v>
+      </c>
+      <c r="C201" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E201" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F201">
+        <v>122.3</v>
+      </c>
+      <c r="G201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>5</v>
+      </c>
+      <c r="C203" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D203" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>6</v>
+      </c>
+      <c r="B204">
+        <v>7</v>
+      </c>
+      <c r="C204" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1</v>
+      </c>
+      <c r="E204" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F204">
+        <v>28.2</v>
+      </c>
+      <c r="G204">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205">
+        <v>9</v>
+      </c>
+      <c r="C205" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F205">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G205">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>10</v>
+      </c>
+      <c r="B206">
+        <v>11</v>
+      </c>
+      <c r="C206" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D206" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F206">
+        <v>46.2</v>
+      </c>
+      <c r="G206">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>12</v>
+      </c>
+      <c r="B207">
+        <v>13</v>
+      </c>
+      <c r="C207" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D207" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E207" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="F207">
+        <v>58.5</v>
+      </c>
+      <c r="G207">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>14</v>
+      </c>
+      <c r="B208">
+        <v>15</v>
+      </c>
+      <c r="C208" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D208" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>69.5</v>
+      </c>
+      <c r="G208">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>16</v>
+      </c>
+      <c r="B209">
+        <v>17</v>
+      </c>
+      <c r="C209" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D209" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E209" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="F209">
+        <v>78.7</v>
+      </c>
+      <c r="G209">
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>18</v>
+      </c>
+      <c r="B210">
+        <v>19</v>
+      </c>
+      <c r="C210" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D210" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="E210" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="F210">
+        <v>84.6</v>
+      </c>
+      <c r="G210">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>20</v>
+      </c>
+      <c r="B211">
+        <v>21</v>
+      </c>
+      <c r="C211" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D211" s="3">
+        <v>11</v>
+      </c>
+      <c r="E211" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="F211">
+        <v>89.7</v>
+      </c>
+      <c r="G211">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>22</v>
+      </c>
+      <c r="B212">
+        <v>23</v>
+      </c>
+      <c r="C212" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D212" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="E212" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="F212">
+        <v>94.4</v>
+      </c>
+      <c r="G212">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>24</v>
+      </c>
+      <c r="B213">
+        <v>25</v>
+      </c>
+      <c r="C213" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D213" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="E213" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="F213">
+        <v>98.2</v>
+      </c>
+      <c r="G213">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>26</v>
+      </c>
+      <c r="B214">
+        <v>27</v>
+      </c>
+      <c r="C214" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D214" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="E214" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="F214">
+        <v>101.5</v>
+      </c>
+      <c r="G214">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>28</v>
+      </c>
+      <c r="B215">
+        <v>29</v>
+      </c>
+      <c r="C215" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D215" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="E215" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="F215">
+        <v>104.8</v>
+      </c>
+      <c r="G215">
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>30</v>
+      </c>
+      <c r="B216">
+        <v>31</v>
+      </c>
+      <c r="C216" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D216" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E216" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="F216">
+        <v>108</v>
+      </c>
+      <c r="G216">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>32</v>
+      </c>
+      <c r="B217">
+        <v>33</v>
+      </c>
+      <c r="C217" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D217" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E217" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="F217">
+        <v>111.1</v>
+      </c>
+      <c r="G217">
+        <v>109.1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>34</v>
+      </c>
+      <c r="B218">
+        <v>35</v>
+      </c>
+      <c r="C218" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D218" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F218">
+        <v>113.7</v>
+      </c>
+      <c r="G218">
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>36</v>
+      </c>
+      <c r="B219">
+        <v>37</v>
+      </c>
+      <c r="C219" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D219" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E219" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F219">
+        <v>114.7</v>
+      </c>
+      <c r="G219">
+        <v>113.3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>38</v>
+      </c>
+      <c r="B220">
+        <v>39</v>
+      </c>
+      <c r="C220" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D220" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F220">
+        <v>118.8</v>
+      </c>
+      <c r="G220">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>40</v>
+      </c>
+      <c r="B221" t="s">
+        <v>57</v>
+      </c>
+      <c r="C221" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D221" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E221" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="F221">
+        <v>121.3</v>
+      </c>
+      <c r="G221">
+        <v>115.7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D222" s="3">
+        <v>0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" t="s">
+        <v>8</v>
+      </c>
+      <c r="G222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>4</v>
+      </c>
+      <c r="B223">
+        <v>5</v>
+      </c>
+      <c r="C223" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D223" s="3">
+        <v>0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" t="s">
+        <v>8</v>
+      </c>
+      <c r="G223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>6</v>
+      </c>
+      <c r="B224">
+        <v>7</v>
+      </c>
+      <c r="C224" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D224" s="3">
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>8</v>
+      </c>
+      <c r="B225">
+        <v>9</v>
+      </c>
+      <c r="C225" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F225">
+        <v>34.4</v>
+      </c>
+      <c r="G225">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>10</v>
+      </c>
+      <c r="B226">
+        <v>11</v>
+      </c>
+      <c r="C226" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F226">
+        <v>45.6</v>
+      </c>
+      <c r="G226">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>12</v>
+      </c>
+      <c r="B227">
+        <v>13</v>
+      </c>
+      <c r="C227" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D227" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E227" s="3">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>56.3</v>
+      </c>
+      <c r="G227">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>14</v>
+      </c>
+      <c r="B228">
+        <v>15</v>
+      </c>
+      <c r="C228" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D228" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F228">
+        <v>67.2</v>
+      </c>
+      <c r="G228">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>16</v>
+      </c>
+      <c r="B229">
+        <v>17</v>
+      </c>
+      <c r="C229" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D229" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="E229" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="F229">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="G229">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>18</v>
+      </c>
+      <c r="B230">
+        <v>19</v>
+      </c>
+      <c r="C230" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D230" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="E230" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="F230">
+        <v>83.6</v>
+      </c>
+      <c r="G230">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>20</v>
+      </c>
+      <c r="B231">
+        <v>21</v>
+      </c>
+      <c r="C231" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D231" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="E231" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F231">
+        <v>89.1</v>
+      </c>
+      <c r="G231">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>22</v>
+      </c>
+      <c r="B232">
+        <v>23</v>
+      </c>
+      <c r="C232" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D232" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="E232" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="F232">
+        <v>93.4</v>
+      </c>
+      <c r="G232">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>24</v>
+      </c>
+      <c r="B233">
+        <v>25</v>
+      </c>
+      <c r="C233" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D233" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="E233" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="F233">
+        <v>96.9</v>
+      </c>
+      <c r="G233">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>26</v>
+      </c>
+      <c r="B234">
+        <v>27</v>
+      </c>
+      <c r="C234" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D234" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="E234" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="F234">
+        <v>99.7</v>
+      </c>
+      <c r="G234">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>28</v>
+      </c>
+      <c r="B235">
+        <v>29</v>
+      </c>
+      <c r="C235" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D235" s="3">
+        <v>14</v>
+      </c>
+      <c r="E235" s="3">
+        <v>11</v>
+      </c>
+      <c r="F235">
+        <v>102.2</v>
+      </c>
+      <c r="G235">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>30</v>
+      </c>
+      <c r="B236">
+        <v>31</v>
+      </c>
+      <c r="C236" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D236" s="3">
+        <v>11</v>
+      </c>
+      <c r="E236" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="F236">
+        <v>104.5</v>
+      </c>
+      <c r="G236">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>32</v>
+      </c>
+      <c r="B237">
+        <v>33</v>
+      </c>
+      <c r="C237" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D237" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="E237" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F237">
+        <v>106.5</v>
+      </c>
+      <c r="G237">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>34</v>
+      </c>
+      <c r="B238">
+        <v>35</v>
+      </c>
+      <c r="C238" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D238" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E238" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="F238">
+        <v>108</v>
+      </c>
+      <c r="G238">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>36</v>
+      </c>
+      <c r="B239">
+        <v>37</v>
+      </c>
+      <c r="C239" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D239" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E239" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F239">
+        <v>109.2</v>
+      </c>
+      <c r="G239">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>38</v>
+      </c>
+      <c r="B240">
+        <v>39</v>
+      </c>
+      <c r="C240" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D240" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E240" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F240">
+        <v>109.1</v>
+      </c>
+      <c r="G240">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>40</v>
+      </c>
+      <c r="B241" t="s">
+        <v>57</v>
+      </c>
+      <c r="C241" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="D241" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E241" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F241">
+        <v>110</v>
+      </c>
+      <c r="G241">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D242" s="3">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" t="s">
+        <v>8</v>
+      </c>
+      <c r="G242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>4</v>
+      </c>
+      <c r="B243">
+        <v>5</v>
+      </c>
+      <c r="C243" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D243" s="3">
+        <v>0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>6</v>
+      </c>
+      <c r="B244">
+        <v>7</v>
+      </c>
+      <c r="C244" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D244" s="3">
+        <v>0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G244" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>8</v>
+      </c>
+      <c r="B245">
+        <v>9</v>
+      </c>
+      <c r="C245" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D245" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>10</v>
+      </c>
+      <c r="B246">
+        <v>11</v>
+      </c>
+      <c r="C246" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D246" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E246" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F246">
+        <v>42.6</v>
+      </c>
+      <c r="G246">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>12</v>
+      </c>
+      <c r="B247">
+        <v>13</v>
+      </c>
+      <c r="C247" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D247" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E247" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F247">
+        <v>56.4</v>
+      </c>
+      <c r="G247">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>14</v>
+      </c>
+      <c r="B248">
+        <v>15</v>
+      </c>
+      <c r="C248" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D248" s="3">
+        <v>0</v>
+      </c>
+      <c r="E248" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F248">
+        <v>67</v>
+      </c>
+      <c r="G248">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>16</v>
+      </c>
+      <c r="B249">
+        <v>17</v>
+      </c>
+      <c r="C249" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D249" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E249" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F249">
+        <v>73.8</v>
+      </c>
+      <c r="G249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>18</v>
+      </c>
+      <c r="B250">
+        <v>19</v>
+      </c>
+      <c r="C250" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E250" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="F250">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G250">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>20</v>
+      </c>
+      <c r="B251">
+        <v>21</v>
+      </c>
+      <c r="C251" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D251" s="3">
+        <v>5</v>
+      </c>
+      <c r="E251" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="F251">
+        <v>85.5</v>
+      </c>
+      <c r="G251">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>22</v>
+      </c>
+      <c r="B252">
+        <v>23</v>
+      </c>
+      <c r="C252" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D252" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="E252" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="F252">
+        <v>88.9</v>
+      </c>
+      <c r="G252">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>24</v>
+      </c>
+      <c r="B253">
+        <v>25</v>
+      </c>
+      <c r="C253" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D253" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E253" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F253">
+        <v>92.2</v>
+      </c>
+      <c r="G253">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>26</v>
+      </c>
+      <c r="B254">
+        <v>27</v>
+      </c>
+      <c r="C254" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D254" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="E254" s="3">
+        <v>16</v>
+      </c>
+      <c r="F254">
+        <v>96.8</v>
+      </c>
+      <c r="G254">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>28</v>
+      </c>
+      <c r="B255">
+        <v>29</v>
+      </c>
+      <c r="C255" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D255" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E255" s="3">
+        <v>20</v>
+      </c>
+      <c r="F255">
+        <v>100.1</v>
+      </c>
+      <c r="G255">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>30</v>
+      </c>
+      <c r="B256">
+        <v>31</v>
+      </c>
+      <c r="C256" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D256" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="E256" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F256">
+        <v>101.8</v>
+      </c>
+      <c r="G256">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>32</v>
+      </c>
+      <c r="B257">
+        <v>33</v>
+      </c>
+      <c r="C257" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D257" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="E257" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="F257">
+        <v>105.9</v>
+      </c>
+      <c r="G257">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>34</v>
+      </c>
+      <c r="B258">
+        <v>35</v>
+      </c>
+      <c r="C258" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D258" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="E258" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="F258">
+        <v>105.9</v>
+      </c>
+      <c r="G258">
+        <v>105.7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>36</v>
+      </c>
+      <c r="B259">
+        <v>37</v>
+      </c>
+      <c r="C259" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D259" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E259" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="F259">
+        <v>109.1</v>
+      </c>
+      <c r="G259">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>38</v>
+      </c>
+      <c r="B260">
+        <v>39</v>
+      </c>
+      <c r="C260" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D260" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E260" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="F260">
+        <v>10714</v>
+      </c>
+      <c r="G260">
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>40</v>
+      </c>
+      <c r="B261" t="s">
+        <v>57</v>
+      </c>
+      <c r="C261" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D261" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E261" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F261">
+        <v>109.7</v>
+      </c>
+      <c r="G261">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D262" s="3">
+        <v>0</v>
+      </c>
+      <c r="E262" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>4</v>
+      </c>
+      <c r="B263">
+        <v>5</v>
+      </c>
+      <c r="C263" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D263" s="3">
+        <v>0</v>
+      </c>
+      <c r="E263" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G263" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>6</v>
+      </c>
+      <c r="B264">
+        <v>7</v>
+      </c>
+      <c r="C264" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D264" s="3">
+        <v>0</v>
+      </c>
+      <c r="E264" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G264" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>8</v>
+      </c>
+      <c r="B265">
+        <v>9</v>
+      </c>
+      <c r="C265" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D265" s="3">
+        <v>0</v>
+      </c>
+      <c r="E265" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G265" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>10</v>
+      </c>
+      <c r="B266">
+        <v>11</v>
+      </c>
+      <c r="C266" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D266" s="3">
+        <v>0</v>
+      </c>
+      <c r="E266" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>12</v>
+      </c>
+      <c r="B267">
+        <v>13</v>
+      </c>
+      <c r="C267" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D267" s="3">
+        <v>0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>14</v>
+      </c>
+      <c r="B268">
+        <v>15</v>
+      </c>
+      <c r="C268" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D268" s="3">
+        <v>0</v>
+      </c>
+      <c r="E268" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>16</v>
+      </c>
+      <c r="B269">
+        <v>17</v>
+      </c>
+      <c r="C269" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D269" s="3">
+        <v>0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>8</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>18</v>
+      </c>
+      <c r="B270">
+        <v>19</v>
+      </c>
+      <c r="C270" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D270" s="3">
+        <v>0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270" t="s">
+        <v>8</v>
+      </c>
+      <c r="G270" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>20</v>
+      </c>
+      <c r="B271">
+        <v>21</v>
+      </c>
+      <c r="C271" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D271" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E271" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="G271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>22</v>
+      </c>
+      <c r="B272">
+        <v>23</v>
+      </c>
+      <c r="C272" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D272" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="E272" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272">
+        <v>86</v>
+      </c>
+      <c r="G272" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>24</v>
+      </c>
+      <c r="B273">
+        <v>25</v>
+      </c>
+      <c r="C273" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D273" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="E273" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273">
+        <v>89.2</v>
+      </c>
+      <c r="G273" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>26</v>
+      </c>
+      <c r="B274">
+        <v>27</v>
+      </c>
+      <c r="C274" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D274" s="3">
+        <v>11</v>
+      </c>
+      <c r="E274" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274">
+        <v>94.2</v>
+      </c>
+      <c r="G274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>28</v>
+      </c>
+      <c r="B275">
+        <v>29</v>
+      </c>
+      <c r="C275" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D275" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="E275" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275">
+        <v>97.2</v>
+      </c>
+      <c r="G275" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>30</v>
+      </c>
+      <c r="B276">
+        <v>31</v>
+      </c>
+      <c r="C276" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D276" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="E276" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276">
+        <v>99.9</v>
+      </c>
+      <c r="G276" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>32</v>
+      </c>
+      <c r="B277">
+        <v>33</v>
+      </c>
+      <c r="C277" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D277" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="E277" t="s">
+        <v>8</v>
+      </c>
+      <c r="F277">
+        <v>103.1</v>
+      </c>
+      <c r="G277" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>34</v>
+      </c>
+      <c r="B278">
+        <v>35</v>
+      </c>
+      <c r="C278" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D278" s="3">
+        <v>7</v>
+      </c>
+      <c r="E278" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278">
+        <v>105.5</v>
+      </c>
+      <c r="G278" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>36</v>
+      </c>
+      <c r="B279">
+        <v>37</v>
+      </c>
+      <c r="C279" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D279" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E279" t="s">
+        <v>8</v>
+      </c>
+      <c r="F279">
+        <v>106.5</v>
+      </c>
+      <c r="G279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>38</v>
+      </c>
+      <c r="B280">
+        <v>39</v>
+      </c>
+      <c r="C280" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D280" s="3">
+        <v>3</v>
+      </c>
+      <c r="E280" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280">
+        <v>115.4</v>
+      </c>
+      <c r="G280" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>40</v>
+      </c>
+      <c r="B281" t="s">
+        <v>57</v>
+      </c>
+      <c r="C281" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D281" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="E281" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281">
+        <v>116</v>
+      </c>
+      <c r="G281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100C4D35D4123B70C44BAFD07CB6F1357C1" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="44e8a5c578b3e9e5249a782b877cebd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7399edcd-aadb-4b3d-ab7c-9d7529cb6b07" xmlns:ns4="7b9e03da-b696-4acb-baee-8a30062b74d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c7f42b8b6c1dcf38dac27e7170a5495" ns3:_="" ns4:_="">
     <xsd:import namespace="7399edcd-aadb-4b3d-ab7c-9d7529cb6b07"/>
@@ -18473,22 +26104,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF49CB4C-A8F3-42F6-84CA-0A0843DF4265}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7399edcd-aadb-4b3d-ab7c-9d7529cb6b07"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7b9e03da-b696-4acb-baee-8a30062b74d8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1C0D132-9B2B-4209-A408-BA9566CD3CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E443B08-1C3C-40CE-A355-A73821ACFD49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18505,29 +26146,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF49CB4C-A8F3-42F6-84CA-0A0843DF4265}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7399edcd-aadb-4b3d-ab7c-9d7529cb6b07"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7b9e03da-b696-4acb-baee-8a30062b74d8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1C0D132-9B2B-4209-A408-BA9566CD3CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Eide1941GrunnmaterialComplete.xlsx
+++ b/Eide1941GrunnmaterialComplete.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Erfarenhetstabeller\Eide 1941 material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csvi0001\Desktop\GitHub\Eide1941\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19376,14 +19376,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="G250" sqref="G250"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="F260" sqref="F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -25379,7 +25380,7 @@
         <v>1.7</v>
       </c>
       <c r="F260">
-        <v>10714</v>
+        <v>107.4</v>
       </c>
       <c r="G260">
         <v>110.9</v>
@@ -25875,21 +25876,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100C4D35D4123B70C44BAFD07CB6F1357C1" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="44e8a5c578b3e9e5249a782b877cebd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7399edcd-aadb-4b3d-ab7c-9d7529cb6b07" xmlns:ns4="7b9e03da-b696-4acb-baee-8a30062b74d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c7f42b8b6c1dcf38dac27e7170a5495" ns3:_="" ns4:_="">
     <xsd:import namespace="7399edcd-aadb-4b3d-ab7c-9d7529cb6b07"/>
@@ -26104,32 +26090,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF49CB4C-A8F3-42F6-84CA-0A0843DF4265}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7399edcd-aadb-4b3d-ab7c-9d7529cb6b07"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7b9e03da-b696-4acb-baee-8a30062b74d8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1C0D132-9B2B-4209-A408-BA9566CD3CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E443B08-1C3C-40CE-A355-A73821ACFD49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26146,4 +26122,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1C0D132-9B2B-4209-A408-BA9566CD3CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF49CB4C-A8F3-42F6-84CA-0A0843DF4265}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7399edcd-aadb-4b3d-ab7c-9d7529cb6b07"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7b9e03da-b696-4acb-baee-8a30062b74d8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>